--- a/hardware/bom/MSP_BOM_Record.xlsx
+++ b/hardware/bom/MSP_BOM_Record.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="125">
   <si>
     <t>Part</t>
   </si>
@@ -171,9 +171,6 @@
     <t>Capacitor 0.01uF</t>
   </si>
   <si>
-    <t>Capacitor 0.01uF -&gt; try 0.1uF</t>
-  </si>
-  <si>
     <t>CAP CER 0.1UF 50V 10% X7R 1206</t>
   </si>
   <si>
@@ -186,18 +183,12 @@
     <t xml:space="preserve">Capacitor 0.1uF </t>
   </si>
   <si>
-    <t>SEE NEXT ROW</t>
-  </si>
-  <si>
     <t>SW-PB</t>
   </si>
   <si>
     <t>PUSH BUTTON SWITCH TACTILE SPST-NO 0.05A 24V</t>
   </si>
   <si>
-    <t>in-progress order 3</t>
-  </si>
-  <si>
     <t>Omran Electronics</t>
   </si>
   <si>
@@ -213,9 +204,6 @@
     <t>JTAG Header</t>
   </si>
   <si>
-    <t>in-progress order 2</t>
-  </si>
-  <si>
     <t>JTAG HEADER DOUBLE ROW HEADER, 5 PINS PER ROW</t>
   </si>
   <si>
@@ -228,18 +216,6 @@
     <t>LED, Red</t>
   </si>
   <si>
-    <t>LNJ308G8LRA</t>
-  </si>
-  <si>
-    <t>LNJ208R8ARA</t>
-  </si>
-  <si>
-    <t>Green LED</t>
-  </si>
-  <si>
-    <t>Red LED</t>
-  </si>
-  <si>
     <t>ERJ-8GEYJ301V</t>
   </si>
   <si>
@@ -351,9 +327,6 @@
     <t>in-progress order 10 (total 5)</t>
   </si>
   <si>
-    <t>in-progress order 2 (tota need 1)</t>
-  </si>
-  <si>
     <t>in-progress order 3 (total need 1)</t>
   </si>
   <si>
@@ -366,9 +339,6 @@
     <t>in-progress order 4 (total need 2)</t>
   </si>
   <si>
-    <t>in-progress order  6 (total need 4)</t>
-  </si>
-  <si>
     <t>in-hand (total need 2)</t>
   </si>
   <si>
@@ -376,6 +346,51 @@
   </si>
   <si>
     <t>in-progress order 3 (total need 2)</t>
+  </si>
+  <si>
+    <t>C1206C103J1RACTU</t>
+  </si>
+  <si>
+    <t>CAP CER 10000PF 100V 5% X7R 1206</t>
+  </si>
+  <si>
+    <t>in-progress order 5 (total need 2)</t>
+  </si>
+  <si>
+    <t>Lite-On Inc.</t>
+  </si>
+  <si>
+    <t>LTST-C230EKT</t>
+  </si>
+  <si>
+    <t>LED RED-ORAN CLR1206REAR MNT SMD</t>
+  </si>
+  <si>
+    <t>LED, Amber</t>
+  </si>
+  <si>
+    <t>LTST-C230AKT</t>
+  </si>
+  <si>
+    <t>LED AMBER CLR 1206 REAR MNT SMD</t>
+  </si>
+  <si>
+    <t>LTST-C150GKT</t>
+  </si>
+  <si>
+    <t>LED GREEN CLEAR 1206 SMD</t>
+  </si>
+  <si>
+    <t>Ribbon Cable</t>
+  </si>
+  <si>
+    <t>IDSS-03-D-04.00</t>
+  </si>
+  <si>
+    <t>CABLE ASSEMBLY FEMALE SINGLE ROW 3 PINS</t>
+  </si>
+  <si>
+    <t>IDMS-03-T-04.00-T</t>
   </si>
 </sst>
 </file>
@@ -391,16 +406,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -428,9 +442,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N53"/>
+  <dimension ref="A2:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,7 +894,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="J7" t="s">
         <v>38</v>
@@ -909,7 +923,7 @@
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
         <v>38</v>
@@ -917,36 +931,57 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
         <v>40</v>
       </c>
       <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
         <v>53</v>
       </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>54</v>
-      </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="J10" t="s">
         <v>38</v>
@@ -954,16 +989,16 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
         <v>57</v>
       </c>
-      <c r="B11" t="s">
-        <v>60</v>
-      </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -975,30 +1010,30 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="J11" t="s">
         <v>38</v>
       </c>
       <c r="K11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
         <v>27</v>
@@ -1010,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="J12" t="s">
         <v>38</v>
@@ -1086,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="J19" t="s">
         <v>38</v>
@@ -1152,16 +1187,16 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
         <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E22" t="s">
         <v>13</v>
@@ -1173,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="J22" t="s">
         <v>38</v>
@@ -1181,16 +1216,16 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E23" t="s">
         <v>13</v>
@@ -1202,7 +1237,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="J23" t="s">
         <v>38</v>
@@ -1210,16 +1245,16 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
         <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E24" t="s">
         <v>13</v>
@@ -1231,7 +1266,7 @@
         <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="J24" t="s">
         <v>38</v>
@@ -1239,28 +1274,28 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
         <v>40</v>
       </c>
       <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
         <v>53</v>
-      </c>
-      <c r="D25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" t="s">
-        <v>54</v>
       </c>
       <c r="G25">
         <v>2</v>
       </c>
       <c r="H25" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="J25" t="s">
         <v>38</v>
@@ -1268,16 +1303,16 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s">
         <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
@@ -1289,7 +1324,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="J26" t="s">
         <v>38</v>
@@ -1299,19 +1334,43 @@
       <c r="A27" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>112</v>
+      </c>
+      <c r="J27" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
         <v>27</v>
@@ -1323,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="J28" t="s">
         <v>38</v>
@@ -1331,231 +1390,212 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="E29" t="s">
         <v>13</v>
       </c>
       <c r="F29">
-        <v>0.46</v>
+        <v>0.4</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="J29" t="s">
         <v>38</v>
-      </c>
-      <c r="K29" t="s">
-        <v>62</v>
-      </c>
-      <c r="L29" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="D30" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="E30" t="s">
         <v>13</v>
       </c>
       <c r="F30">
-        <v>0.56000000000000005</v>
+        <v>0.4</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="J30" t="s">
         <v>38</v>
       </c>
-      <c r="K30" t="s">
-        <v>62</v>
-      </c>
-      <c r="L30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>67</v>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31">
+        <v>0.38</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>106</v>
+      </c>
+      <c r="J31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>105</v>
+      </c>
+      <c r="J32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="C38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="K38" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="L38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="M38" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>43</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
         <v>40</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C39" t="s">
         <v>41</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D39" t="s">
         <v>42</v>
       </c>
-      <c r="E37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37">
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39">
         <v>0.36</v>
       </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37" t="s">
-        <v>108</v>
-      </c>
-      <c r="J37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" t="s">
-        <v>72</v>
-      </c>
-      <c r="E38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38">
-        <v>0.46</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38" t="s">
-        <v>115</v>
-      </c>
-      <c r="J38" t="s">
-        <v>38</v>
-      </c>
-      <c r="K38" t="s">
-        <v>62</v>
-      </c>
-      <c r="L38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39" t="s">
-        <v>73</v>
-      </c>
-      <c r="E39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39">
-        <v>0.56000000000000005</v>
-      </c>
       <c r="G39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="J39" t="s">
         <v>38</v>
-      </c>
-      <c r="K39" t="s">
-        <v>62</v>
-      </c>
-      <c r="L39" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B40" t="s">
         <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D40" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E40" t="s">
         <v>13</v>
@@ -1567,7 +1607,7 @@
         <v>2</v>
       </c>
       <c r="H40" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="J40" t="s">
         <v>38</v>
@@ -1575,19 +1615,19 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D41" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E41" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F41">
         <v>22.95</v>
@@ -1596,7 +1636,7 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="I41">
         <v>2</v>
@@ -1605,226 +1645,322 @@
         <v>38</v>
       </c>
     </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42">
+        <v>0.4</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>106</v>
+      </c>
+      <c r="J42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43">
+        <v>0.4</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>106</v>
+      </c>
+      <c r="J43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44">
+        <v>0.38</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>106</v>
+      </c>
+      <c r="J44" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="C50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="J50" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K47" s="1" t="s">
+      <c r="K50" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="1" t="s">
+      <c r="L50" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M47" s="1" t="s">
+      <c r="M50" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>45</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B51" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51">
+        <v>0.94</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>104</v>
+      </c>
+      <c r="J51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" t="s">
+        <v>89</v>
+      </c>
+      <c r="E52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52">
+        <v>0.31</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52" t="s">
+        <v>109</v>
+      </c>
+      <c r="J52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53">
+        <v>0.36</v>
+      </c>
+      <c r="G53">
+        <v>5</v>
+      </c>
+      <c r="H53" t="s">
+        <v>100</v>
+      </c>
+      <c r="J53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" t="s">
+        <v>91</v>
+      </c>
+      <c r="D54" t="s">
+        <v>92</v>
+      </c>
+      <c r="E54" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54">
+        <v>0.96</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>104</v>
+      </c>
+      <c r="J54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" t="s">
         <v>94</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D55" t="s">
         <v>95</v>
       </c>
-      <c r="D48" t="s">
-        <v>44</v>
-      </c>
-      <c r="E48" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48">
-        <v>0.94</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48" t="s">
-        <v>113</v>
-      </c>
-      <c r="J48" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="E55" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55">
+        <v>4</v>
+      </c>
+      <c r="H55" t="s">
+        <v>108</v>
+      </c>
+      <c r="J55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" t="s">
         <v>98</v>
       </c>
-      <c r="B49" t="s">
-        <v>40</v>
-      </c>
-      <c r="C49" t="s">
-        <v>96</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="D56" t="s">
+        <v>99</v>
+      </c>
+      <c r="E56" t="s">
         <v>97</v>
       </c>
-      <c r="E49" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49">
-        <v>0.31</v>
-      </c>
-      <c r="G49">
+      <c r="F56" t="s">
+        <v>29</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56">
         <v>2</v>
       </c>
-      <c r="H49" t="s">
-        <v>119</v>
-      </c>
-      <c r="J49" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>43</v>
-      </c>
-      <c r="B50" t="s">
-        <v>40</v>
-      </c>
-      <c r="C50" t="s">
-        <v>41</v>
-      </c>
-      <c r="D50" t="s">
-        <v>42</v>
-      </c>
-      <c r="E50" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50">
-        <v>0.36</v>
-      </c>
-      <c r="G50">
-        <v>5</v>
-      </c>
-      <c r="H50" t="s">
-        <v>108</v>
-      </c>
-      <c r="J50" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>101</v>
-      </c>
-      <c r="B51" t="s">
-        <v>40</v>
-      </c>
-      <c r="C51" t="s">
-        <v>99</v>
-      </c>
-      <c r="D51" t="s">
-        <v>100</v>
-      </c>
-      <c r="E51" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51">
-        <v>0.96</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51" t="s">
-        <v>113</v>
-      </c>
-      <c r="J51" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>85</v>
-      </c>
-      <c r="B52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C52" t="s">
-        <v>102</v>
-      </c>
-      <c r="D52" t="s">
-        <v>103</v>
-      </c>
-      <c r="E52" t="s">
-        <v>27</v>
-      </c>
-      <c r="F52" t="s">
-        <v>29</v>
-      </c>
-      <c r="G52">
-        <v>4</v>
-      </c>
-      <c r="H52" t="s">
-        <v>118</v>
-      </c>
-      <c r="J52" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>104</v>
-      </c>
-      <c r="B53" t="s">
-        <v>105</v>
-      </c>
-      <c r="C53" t="s">
-        <v>106</v>
-      </c>
-      <c r="D53" t="s">
-        <v>107</v>
-      </c>
-      <c r="E53" t="s">
-        <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>29</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="H53" t="s">
-        <v>16</v>
-      </c>
-      <c r="I53">
-        <v>2</v>
-      </c>
-      <c r="J53" t="s">
+      <c r="J56" t="s">
         <v>38</v>
       </c>
     </row>

--- a/hardware/bom/MSP_BOM_Record.xlsx
+++ b/hardware/bom/MSP_BOM_Record.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="179">
   <si>
     <t>Part</t>
   </si>
@@ -66,9 +66,6 @@
     <t>MAX232</t>
   </si>
   <si>
-    <t>in-hand</t>
-  </si>
-  <si>
     <t>FT232RL-REEL</t>
   </si>
   <si>
@@ -321,42 +318,15 @@
     <t>in-progress order 15 (total need 11)</t>
   </si>
   <si>
-    <t>in-progress order 10 (total need 3)</t>
-  </si>
-  <si>
-    <t>in-progress order 10 (total 5)</t>
-  </si>
-  <si>
-    <t>in-progress order 3 (total need 1)</t>
-  </si>
-  <si>
     <t>in-progress order 2 (total need 1)</t>
   </si>
   <si>
-    <t>in-progress order 1 (total need 1)</t>
-  </si>
-  <si>
-    <t>in-progress order 4 (total need 2)</t>
-  </si>
-  <si>
-    <t>in-hand (total need 2)</t>
-  </si>
-  <si>
-    <t>in-progress order 6 (total need 4)</t>
-  </si>
-  <si>
-    <t>in-progress order 3 (total need 2)</t>
-  </si>
-  <si>
     <t>C1206C103J1RACTU</t>
   </si>
   <si>
     <t>CAP CER 10000PF 100V 5% X7R 1206</t>
   </si>
   <si>
-    <t>in-progress order 5 (total need 2)</t>
-  </si>
-  <si>
     <t>Lite-On Inc.</t>
   </si>
   <si>
@@ -391,6 +361,198 @@
   </si>
   <si>
     <t>IDMS-03-T-04.00-T</t>
+  </si>
+  <si>
+    <t>in-hand 2, (only needed 1)</t>
+  </si>
+  <si>
+    <t>in-hand 10 (only needed 3)</t>
+  </si>
+  <si>
+    <t>in-hand 2, (only needed 2)</t>
+  </si>
+  <si>
+    <t>in-hand 5, (only needed 1)</t>
+  </si>
+  <si>
+    <t>in-hand 15, (only needed 11)</t>
+  </si>
+  <si>
+    <t>in-hand 4, (only needed 2)</t>
+  </si>
+  <si>
+    <t>in-hand 3, (only needed 2)</t>
+  </si>
+  <si>
+    <t>in-hand 3, (only needed 1)</t>
+  </si>
+  <si>
+    <t>in-hand 10, (only needed 5)</t>
+  </si>
+  <si>
+    <t>in-hand 5, (only needed 2)</t>
+  </si>
+  <si>
+    <t>RES 100 OHM 1/4W 5% 1206 SMD</t>
+  </si>
+  <si>
+    <t>ERJ-8GEYJ101V</t>
+  </si>
+  <si>
+    <t>Resistor 100</t>
+  </si>
+  <si>
+    <t>in-hand 10</t>
+  </si>
+  <si>
+    <t>CPLD IC PLD EE 10NS 24-SOIC</t>
+  </si>
+  <si>
+    <t>in-hand 2</t>
+  </si>
+  <si>
+    <t>ATF22LV10C-10SU</t>
+  </si>
+  <si>
+    <t>Atmel</t>
+  </si>
+  <si>
+    <t>CPLD</t>
+  </si>
+  <si>
+    <t>in-hand 10, (only needed 1)</t>
+  </si>
+  <si>
+    <t>TPS60501DGS</t>
+  </si>
+  <si>
+    <t>IC CHRG PUMP STPDWN 250MA 10MSOP</t>
+  </si>
+  <si>
+    <t>CAP CER 2.2UF 16V 10% X5R 1206</t>
+  </si>
+  <si>
+    <t>in-hand 4</t>
+  </si>
+  <si>
+    <t>C3216X5R1C225K/1.60</t>
+  </si>
+  <si>
+    <t>Capacitor 2.2uF</t>
+  </si>
+  <si>
+    <t>TPS79915DDCR</t>
+  </si>
+  <si>
+    <t>IC LDO 200MA 1.5V TSOT-23-5</t>
+  </si>
+  <si>
+    <t>in-hand 3</t>
+  </si>
+  <si>
+    <t>TPS79928DDCR</t>
+  </si>
+  <si>
+    <t>IC LDO 200MA 2.8V TSOT-23-5</t>
+  </si>
+  <si>
+    <t>C3216X7R1E105M/0.85</t>
+  </si>
+  <si>
+    <t>CAP CER 1UF 25V 20% X7R 1206</t>
+  </si>
+  <si>
+    <t>in-hand 12</t>
+  </si>
+  <si>
+    <t>CAP CER 0.012UF 50V 10% X7R 1206</t>
+  </si>
+  <si>
+    <t>Capacitor 0.012uF</t>
+  </si>
+  <si>
+    <t>C1206C123K5RACTU</t>
+  </si>
+  <si>
+    <t>Resistor 165</t>
+  </si>
+  <si>
+    <t>RES 165 OHM 1/4W 1% 1206 SMD</t>
+  </si>
+  <si>
+    <t>ERJ-8ENF1650V</t>
+  </si>
+  <si>
+    <t>Resistor 0.0</t>
+  </si>
+  <si>
+    <t>in-hand 8</t>
+  </si>
+  <si>
+    <t>ERJ-8GEY0R00V</t>
+  </si>
+  <si>
+    <t>RES 0.0 OHM 1/4W 1206 SMD</t>
+  </si>
+  <si>
+    <t>Capacitor 0.1uF</t>
+  </si>
+  <si>
+    <t>C3216X7R1H104K</t>
+  </si>
+  <si>
+    <t>Oscillator 24 MHz</t>
+  </si>
+  <si>
+    <t>AVX Corporation</t>
+  </si>
+  <si>
+    <t>KC2520B24.0000C10E00</t>
+  </si>
+  <si>
+    <t>OSCILLATOR 24.0000MHZ SMD</t>
+  </si>
+  <si>
+    <t>SN74LVCH16T245DGGR</t>
+  </si>
+  <si>
+    <t>IC BUS TRANSCVR 16BIT 48TSSOP</t>
+  </si>
+  <si>
+    <t>I2C Level  Translator</t>
+  </si>
+  <si>
+    <t>IC VOLT-LVL TRANSL 2BIT BI SM8</t>
+  </si>
+  <si>
+    <t>TXS0102DCTR</t>
+  </si>
+  <si>
+    <t>CRYSTAL 24.000 MHZ 20PF 49US</t>
+  </si>
+  <si>
+    <t>ECS-240-20-4</t>
+  </si>
+  <si>
+    <t>ECS INC</t>
+  </si>
+  <si>
+    <t>Crystal 24MHz</t>
+  </si>
+  <si>
+    <t>PCA9306DCTR</t>
+  </si>
+  <si>
+    <t>IC VOLT-LEVEL TRANSLATOR SM8</t>
+  </si>
+  <si>
+    <t>in-hand 5, (only needed 4)</t>
+  </si>
+  <si>
+    <t>in-hand 4, (only needed 1)</t>
+  </si>
+  <si>
+    <t>in-hand 1</t>
   </si>
 </sst>
 </file>
@@ -746,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N56"/>
+  <dimension ref="A2:N84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,14 +923,14 @@
     <col min="6" max="6" width="24.5703125" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" customWidth="1"/>
     <col min="10" max="10" width="15.85546875" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1"/>
     </row>
@@ -777,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -818,7 +980,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -836,24 +998,27 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>122</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
         <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -865,24 +1030,27 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>115</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -894,24 +1062,27 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>104</v>
+        <v>115</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
         <v>40</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>41</v>
-      </c>
-      <c r="D8" t="s">
-        <v>42</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -923,24 +1094,27 @@
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>100</v>
+        <v>119</v>
+      </c>
+      <c r="I8">
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -952,53 +1126,59 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>112</v>
+        <v>124</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
       </c>
       <c r="J9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
         <v>52</v>
       </c>
-      <c r="D10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>53</v>
-      </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>101</v>
+        <v>116</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
         <v>55</v>
-      </c>
-      <c r="B11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" t="s">
-        <v>56</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -1010,50 +1190,56 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>103</v>
+        <v>118</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
         <v>61</v>
       </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" t="s">
-        <v>62</v>
-      </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>104</v>
+        <v>118</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
       </c>
       <c r="J12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1061,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>1</v>
@@ -1100,45 +1286,45 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
         <v>24</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
         <v>28</v>
       </c>
-      <c r="E19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" t="s">
-        <v>29</v>
-      </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
         <v>17</v>
-      </c>
-      <c r="D20" t="s">
-        <v>18</v>
       </c>
       <c r="E20" t="s">
         <v>13</v>
@@ -1150,53 +1336,59 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>16</v>
+        <v>115</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>16</v>
+        <v>134</v>
+      </c>
+      <c r="I21">
+        <v>10</v>
       </c>
       <c r="J21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" t="s">
         <v>82</v>
-      </c>
-      <c r="D22" t="s">
-        <v>83</v>
       </c>
       <c r="E22" t="s">
         <v>13</v>
@@ -1208,24 +1400,27 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>104</v>
+        <v>115</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" t="s">
         <v>84</v>
-      </c>
-      <c r="D23" t="s">
-        <v>85</v>
       </c>
       <c r="E23" t="s">
         <v>13</v>
@@ -1237,24 +1432,27 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>103</v>
+        <v>122</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s">
         <v>67</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" t="s">
-        <v>68</v>
       </c>
       <c r="E24" t="s">
         <v>13</v>
@@ -1266,53 +1464,59 @@
         <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>102</v>
+        <v>123</v>
+      </c>
+      <c r="I24">
+        <v>10</v>
       </c>
       <c r="J24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
         <v>52</v>
-      </c>
-      <c r="D25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" t="s">
-        <v>53</v>
       </c>
       <c r="G25">
         <v>2</v>
       </c>
       <c r="H25" t="s">
-        <v>101</v>
+        <v>116</v>
+      </c>
+      <c r="I25">
+        <v>10</v>
       </c>
       <c r="J25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
@@ -1324,24 +1528,27 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>104</v>
+        <v>115</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D27" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
@@ -1353,53 +1560,59 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>112</v>
+        <v>124</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
       </c>
       <c r="J27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" t="s">
         <v>80</v>
       </c>
-      <c r="D28" t="s">
-        <v>81</v>
-      </c>
       <c r="E28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>105</v>
+        <v>177</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
       </c>
       <c r="J28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E29" t="s">
         <v>13</v>
@@ -1411,24 +1624,27 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>106</v>
+        <v>120</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
       </c>
       <c r="J29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E30" t="s">
         <v>13</v>
@@ -1440,24 +1656,27 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>106</v>
+        <v>120</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D31" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E31" t="s">
         <v>13</v>
@@ -1469,49 +1688,58 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>106</v>
+        <v>120</v>
+      </c>
+      <c r="I31">
+        <v>4</v>
       </c>
       <c r="J31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D32" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>105</v>
+        <v>178</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>124</v>
+        <v>114</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -1519,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>1</v>
@@ -1557,16 +1785,16 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
         <v>40</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>41</v>
-      </c>
-      <c r="D39" t="s">
-        <v>42</v>
       </c>
       <c r="E39" t="s">
         <v>13</v>
@@ -1578,24 +1806,24 @@
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" t="s">
         <v>67</v>
-      </c>
-      <c r="B40" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" t="s">
-        <v>68</v>
       </c>
       <c r="E40" t="s">
         <v>13</v>
@@ -1607,27 +1835,30 @@
         <v>2</v>
       </c>
       <c r="H40" t="s">
-        <v>102</v>
+        <v>123</v>
+      </c>
+      <c r="I40">
+        <v>10</v>
       </c>
       <c r="J40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" t="s">
         <v>71</v>
-      </c>
-      <c r="B41" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" t="s">
-        <v>73</v>
-      </c>
-      <c r="E41" t="s">
-        <v>72</v>
       </c>
       <c r="F41">
         <v>22.95</v>
@@ -1636,27 +1867,27 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="I41">
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C42" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D42" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E42" t="s">
         <v>13</v>
@@ -1668,24 +1899,27 @@
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>106</v>
+        <v>120</v>
+      </c>
+      <c r="I42">
+        <v>4</v>
       </c>
       <c r="J42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B43" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C43" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D43" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E43" t="s">
         <v>13</v>
@@ -1697,24 +1931,27 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>106</v>
+        <v>120</v>
+      </c>
+      <c r="I43">
+        <v>4</v>
       </c>
       <c r="J43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C44" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D44" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E44" t="s">
         <v>13</v>
@@ -1726,10 +1963,13 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>106</v>
+        <v>120</v>
+      </c>
+      <c r="I44">
+        <v>4</v>
       </c>
       <c r="J44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -1743,7 +1983,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -1751,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>1</v>
@@ -1789,16 +2029,16 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B51" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" t="s">
         <v>86</v>
       </c>
-      <c r="C51" t="s">
-        <v>87</v>
-      </c>
       <c r="D51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E51" t="s">
         <v>13</v>
@@ -1810,24 +2050,27 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>104</v>
+        <v>115</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" t="s">
         <v>88</v>
-      </c>
-      <c r="D52" t="s">
-        <v>89</v>
       </c>
       <c r="E52" t="s">
         <v>13</v>
@@ -1839,24 +2082,27 @@
         <v>2</v>
       </c>
       <c r="H52" t="s">
-        <v>109</v>
+        <v>121</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" t="s">
         <v>40</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>41</v>
-      </c>
-      <c r="D53" t="s">
-        <v>42</v>
       </c>
       <c r="E53" t="s">
         <v>13</v>
@@ -1868,24 +2114,27 @@
         <v>5</v>
       </c>
       <c r="H53" t="s">
-        <v>100</v>
+        <v>119</v>
+      </c>
+      <c r="I53">
+        <v>15</v>
       </c>
       <c r="J53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C54" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" t="s">
         <v>91</v>
-      </c>
-      <c r="D54" t="s">
-        <v>92</v>
       </c>
       <c r="E54" t="s">
         <v>13</v>
@@ -1897,71 +2146,548 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>104</v>
+        <v>115</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C55" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55" t="s">
         <v>94</v>
       </c>
-      <c r="D55" t="s">
-        <v>95</v>
-      </c>
       <c r="E55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G55">
         <v>4</v>
       </c>
       <c r="H55" t="s">
-        <v>108</v>
+        <v>176</v>
+      </c>
+      <c r="I55">
+        <v>5</v>
       </c>
       <c r="J55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" t="s">
         <v>96</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>97</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>98</v>
       </c>
-      <c r="D56" t="s">
-        <v>99</v>
-      </c>
       <c r="E56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G56">
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="I56">
         <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" t="s">
+        <v>47</v>
+      </c>
+      <c r="C63" t="s">
+        <v>126</v>
+      </c>
+      <c r="D63" t="s">
+        <v>125</v>
+      </c>
+      <c r="E63" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63">
+        <v>0.06</v>
+      </c>
+      <c r="H63" t="s">
+        <v>128</v>
+      </c>
+      <c r="I63">
+        <v>10</v>
+      </c>
+      <c r="J63" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" t="s">
+        <v>129</v>
+      </c>
+      <c r="E64" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64">
+        <v>2.8</v>
+      </c>
+      <c r="H64" t="s">
+        <v>130</v>
+      </c>
+      <c r="I64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69" t="s">
+        <v>135</v>
+      </c>
+      <c r="D69" t="s">
+        <v>136</v>
+      </c>
+      <c r="E69" t="s">
+        <v>96</v>
+      </c>
+      <c r="F69" t="s">
+        <v>28</v>
+      </c>
+      <c r="H69" t="s">
+        <v>130</v>
+      </c>
+      <c r="I69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" t="s">
+        <v>39</v>
+      </c>
+      <c r="C70" t="s">
+        <v>139</v>
+      </c>
+      <c r="D70" t="s">
+        <v>137</v>
+      </c>
+      <c r="E70" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70">
+        <v>0.4</v>
+      </c>
+      <c r="H70" t="s">
+        <v>138</v>
+      </c>
+      <c r="I70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>141</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71" t="s">
+        <v>141</v>
+      </c>
+      <c r="D71" t="s">
+        <v>142</v>
+      </c>
+      <c r="E71" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71">
+        <v>0.96</v>
+      </c>
+      <c r="H71" t="s">
+        <v>143</v>
+      </c>
+      <c r="I71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72" t="s">
+        <v>96</v>
+      </c>
+      <c r="C72" t="s">
+        <v>144</v>
+      </c>
+      <c r="D72" t="s">
+        <v>145</v>
+      </c>
+      <c r="E72" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72">
+        <v>0.96</v>
+      </c>
+      <c r="H72" t="s">
+        <v>143</v>
+      </c>
+      <c r="I72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>42</v>
+      </c>
+      <c r="B73" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" t="s">
+        <v>146</v>
+      </c>
+      <c r="D73" t="s">
+        <v>147</v>
+      </c>
+      <c r="E73" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H73" t="s">
+        <v>148</v>
+      </c>
+      <c r="I73">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>140</v>
+      </c>
+      <c r="B74" t="s">
+        <v>39</v>
+      </c>
+      <c r="C74" t="s">
+        <v>139</v>
+      </c>
+      <c r="D74" t="s">
+        <v>137</v>
+      </c>
+      <c r="E74" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74">
+        <v>0.4</v>
+      </c>
+      <c r="H74" t="s">
+        <v>138</v>
+      </c>
+      <c r="I74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" t="s">
+        <v>39</v>
+      </c>
+      <c r="C75" t="s">
+        <v>151</v>
+      </c>
+      <c r="D75" t="s">
+        <v>149</v>
+      </c>
+      <c r="E75" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75">
+        <v>0.48</v>
+      </c>
+      <c r="H75" t="s">
+        <v>138</v>
+      </c>
+      <c r="I75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" t="s">
+        <v>47</v>
+      </c>
+      <c r="C76" t="s">
+        <v>154</v>
+      </c>
+      <c r="D76" t="s">
+        <v>153</v>
+      </c>
+      <c r="E76" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76">
+        <v>0.1</v>
+      </c>
+      <c r="H76" t="s">
+        <v>138</v>
+      </c>
+      <c r="I76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>155</v>
+      </c>
+      <c r="B77" t="s">
+        <v>47</v>
+      </c>
+      <c r="C77" t="s">
+        <v>157</v>
+      </c>
+      <c r="D77" t="s">
+        <v>158</v>
+      </c>
+      <c r="E77" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77">
+        <v>0.06</v>
+      </c>
+      <c r="H77" t="s">
+        <v>156</v>
+      </c>
+      <c r="I77">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>159</v>
+      </c>
+      <c r="B78" t="s">
+        <v>39</v>
+      </c>
+      <c r="C78" t="s">
+        <v>160</v>
+      </c>
+      <c r="D78" t="s">
+        <v>50</v>
+      </c>
+      <c r="E78" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="H78" t="s">
+        <v>128</v>
+      </c>
+      <c r="I78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>161</v>
+      </c>
+      <c r="B79" t="s">
+        <v>162</v>
+      </c>
+      <c r="C79" t="s">
+        <v>163</v>
+      </c>
+      <c r="D79" t="s">
+        <v>164</v>
+      </c>
+      <c r="E79" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79">
+        <v>3.96</v>
+      </c>
+      <c r="H79" t="s">
+        <v>130</v>
+      </c>
+      <c r="I79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>165</v>
+      </c>
+      <c r="B80" t="s">
+        <v>96</v>
+      </c>
+      <c r="C80" t="s">
+        <v>165</v>
+      </c>
+      <c r="D80" t="s">
+        <v>166</v>
+      </c>
+      <c r="E80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80">
+        <v>2.39</v>
+      </c>
+      <c r="H80" t="s">
+        <v>143</v>
+      </c>
+      <c r="I80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>167</v>
+      </c>
+      <c r="B81" t="s">
+        <v>96</v>
+      </c>
+      <c r="C81" t="s">
+        <v>169</v>
+      </c>
+      <c r="D81" t="s">
+        <v>168</v>
+      </c>
+      <c r="E81" t="s">
+        <v>96</v>
+      </c>
+      <c r="F81" t="s">
+        <v>28</v>
+      </c>
+      <c r="H81" t="s">
+        <v>130</v>
+      </c>
+      <c r="I81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>74</v>
+      </c>
+      <c r="B82" t="s">
+        <v>47</v>
+      </c>
+      <c r="C82" t="s">
+        <v>83</v>
+      </c>
+      <c r="D82" t="s">
+        <v>84</v>
+      </c>
+      <c r="E82" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82">
+        <v>0.06</v>
+      </c>
+      <c r="H82" t="s">
+        <v>143</v>
+      </c>
+      <c r="I82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>173</v>
+      </c>
+      <c r="B83" t="s">
+        <v>172</v>
+      </c>
+      <c r="C83" t="s">
+        <v>171</v>
+      </c>
+      <c r="D83" t="s">
+        <v>170</v>
+      </c>
+      <c r="E83" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83">
+        <v>0.81</v>
+      </c>
+      <c r="H83" t="s">
+        <v>130</v>
+      </c>
+      <c r="I83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>167</v>
+      </c>
+      <c r="B84" t="s">
+        <v>96</v>
+      </c>
+      <c r="C84" t="s">
+        <v>174</v>
+      </c>
+      <c r="D84" t="s">
+        <v>175</v>
+      </c>
+      <c r="E84" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84">
+        <v>0.94</v>
+      </c>
+      <c r="H84" t="s">
+        <v>138</v>
+      </c>
+      <c r="I84">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/hardware/bom/MSP_BOM_Record.xlsx
+++ b/hardware/bom/MSP_BOM_Record.xlsx
@@ -910,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
